--- a/ChildAlertSystem/SystemTesting/Integration Testing.xlsx
+++ b/ChildAlertSystem/SystemTesting/Integration Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trishok\Desktop\Prithvi MS Documents\Advace Software Techniques for Eng App\Project\ChildAlertSystem\Testing\SystemTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E8EF1-495A-4DFF-8B2D-D1707E659347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F6A99-77A3-4CD6-9861-84A39E4ED38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>History</t>
   </si>
@@ -231,16 +231,6 @@
     <t>Calibration Factor Setting Test</t>
   </si>
   <si>
-    <t xml:space="preserve">The server Should go to Listen state after running the Server.
-The Client Should Connect to the Listening Server.
-The Client Should Display the IP address and port number of the Server.
-The Server Should Accept the Client. </t>
-  </si>
-  <si>
-    <t>Connection of Both Driver and Child Seat Load Cell Sensor to 
-Aurdino</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Connect the Aurdino Board with all the sensor connections to System.
 2. Open the Aurdino IDE in System.
 3. Write a Logic in sketch to read the Driver Seat Status by insitiallizing the seat value to 255.
@@ -253,12 +243,6 @@
     <t>Driver Seat Sensor Status Test</t>
   </si>
   <si>
-    <t>1 If the Driver Sensor is ready  it should read the driver weight value else it  should display driver scale not reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 If the Child Sensor is ready  it should read the driver weight value else it should display driver scale not reading </t>
-  </si>
-  <si>
     <t>Child Seat Sensor Status Test</t>
   </si>
   <si>
@@ -331,18 +315,10 @@
 (Note: the System Server (Spyder IDE) Should be in listen state (*Run the server first and then Client))</t>
   </si>
   <si>
-    <t>The Reading Alert Value in the Client (Arduino IDE in System) should
- display in Sever.</t>
-  </si>
-  <si>
     <t>Sending The Alert Value to System Server Test</t>
   </si>
   <si>
     <t>Alert Value Delay Test</t>
-  </si>
-  <si>
-    <t>Once the Alert Value = 2 is sent to the server it should take 3 min delay 
-to send a second alert to the server else it should take 2 min delay.</t>
   </si>
   <si>
     <t>System Server Connection Test with AWS IoT</t>
@@ -367,9 +343,6 @@
 7. Run the System Server.</t>
   </si>
   <si>
-    <t>The system server connection should visible in AWS IoT console.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Receving Alert Msg Test to Aws IoT Thing </t>
   </si>
   <si>
@@ -377,11 +350,130 @@
 message "Hey you left you Child in the Car please Hurry" to AWS IoT</t>
   </si>
   <si>
-    <t>No Alert Message Test</t>
-  </si>
-  <si>
-    <t>If the Server receives Alert Value as 1 or 0 it should not sent the
- Alert message to AWS IoT.</t>
+    <t>The system server connection should visible in AWS IoT Test console.</t>
+  </si>
+  <si>
+    <t>Connection of Both Driver and Child Seat Load Cell Sensor to Aurdino</t>
+  </si>
+  <si>
+    <t>Performance test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run the System </t>
+  </si>
+  <si>
+    <t>The System should send the alert with in 30 sec after 
+emergency event occurs</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting the precised 
+Calibration Factor </t>
+  </si>
+  <si>
+    <t>The negative value is readed if there is a load on the sensor and 0 when 
+there is no load</t>
+  </si>
+  <si>
+    <t>The positive value is readed if there is a load on the sensor and 0 when 
+there is no load</t>
+  </si>
+  <si>
+    <t>Both Child and Driver sensor Values are positive when there is a 
+weight on the sensor and 0 when no load.</t>
+  </si>
+  <si>
+    <t>The weight values are exatclly the weight of the load.</t>
+  </si>
+  <si>
+    <t>The server Should go to Listen state after running the Server.
+The Client Should Connect to the Listening Server.
+The Server Should Accept the Client. 
+The Client Should Display the IP address and port number of the Server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The server went to listen mode and waited for clinet connection.
+The Client Search for the Listening Server and connected to the listening Server
+The Server acccepted the Client.
+The Client displayed the IP address 192.168.1.5, and port number 80 of the accepted server.  
+</t>
+  </si>
+  <si>
+    <t>If the Driver Sensor is ready  it should read the driver weight value else it  should display driver scale not reading</t>
+  </si>
+  <si>
+    <t>If the Driver Sensor is ready  it  readed the driver weight value 
+or it displayed driver scale not reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the Child Sensor is ready  it should read the driver weight value else it should display driver scale not reading </t>
+  </si>
+  <si>
+    <t>If the Child Sensor is ready  it  readed the child weight value 
+or it displayed child scale not reading</t>
+  </si>
+  <si>
+    <t>1. Initially the driver absent timer is 0
+2. Driver absent Timer increased the count by 1 when driver seat
+ value is zero
+3. Driver absent Timer reset the count to 0  when driver
+ seat value is non zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the driver status printed as false when driver absent timer is 
+greater than 60 esleas true.
+</t>
+  </si>
+  <si>
+    <t>the child status is printed as false when the child seat value 
+is equal to zero else as true.</t>
+  </si>
+  <si>
+    <t>the alert value is printed as 0 when driver and child status are false.</t>
+  </si>
+  <si>
+    <t>the alert value is printed as 1 when the driver and child status are true.</t>
+  </si>
+  <si>
+    <t>the alert value is printed as 2 when the driver 
+staus is false and child status is true</t>
+  </si>
+  <si>
+    <t>when the Reading Alert Value is 2 in the Client (Arduino IDE in System) it should send an alert to system Sever.</t>
+  </si>
+  <si>
+    <t>when the reading alert value is 2 the client sent an alert value
+ to the system server</t>
+  </si>
+  <si>
+    <t>Once the first Alert Value  is sent to the server if action is not taken it should take 3 min delay to send a second alert to the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After sending the first alert if the action is not taken, the second alert is 
+sent after 3 minutes 30 seconds. </t>
+  </si>
+  <si>
+    <t>The System server connection was visibled in AWS IoT test console</t>
+  </si>
+  <si>
+    <t>Once the server received an alert value  from client it sent an alert message to AWS IoT.</t>
+  </si>
+  <si>
+    <t>The system sent the alert to parent approximately  3 or 4 seconds
+ after emergency event occurs</t>
+  </si>
+  <si>
+    <t>No Alert Vale Sent</t>
+  </si>
+  <si>
+    <t>If the Alert Value as 1 or 0 the client should not sent the
+ Alert value to System Server.</t>
+  </si>
+  <si>
+    <t>The client didn’t send any alert value to system server when the alert 
+value is 0 or 1</t>
   </si>
 </sst>
 </file>
@@ -424,7 +516,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -538,11 +630,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,6 +671,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -596,10 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,594 +998,594 @@
   <sheetData>
     <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1688,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1809,8 @@
     <col min="4" max="4" width="59.33203125" customWidth="1"/>
     <col min="5" max="5" width="58.88671875" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="20.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1730,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,7 +1895,7 @@
     </row>
     <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>34</v>
@@ -1812,7 +1920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1831,8 +1939,11 @@
       <c r="F18" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="276" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="276" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1845,15 +1956,20 @@
       <c r="D19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -1866,7 +1982,9 @@
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1874,12 +1992,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="297" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>44</v>
@@ -1887,10 +2005,17 @@
       <c r="D21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
@@ -1903,10 +2028,17 @@
       <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -1914,210 +2046,335 @@
         <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>11</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>13</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>14</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>15</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>16</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>17</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>18</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>17</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>18</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>83</v>
+      <c r="E37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
